--- a/Solution/FilesEditor.Tests/TestFiles/InputFiles/Forecast.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/InputFiles/Forecast.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fperrino\Desktop\KPI UT_LAVORO_LEFO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\FilesEditor.Tests\TestFiles\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B764E30E-0B2B-4416-8890-7907B6BC788A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{CE016E61-7459-40AD-BB52-464C55DF94A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,8 +127,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,19 +505,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986F63D4-D872-476B-A8DF-A86C3916F277}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>25</v>
       </c>

--- a/Solution/FilesEditor.Tests/TestFiles/InputFiles/Forecast.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/InputFiles/Forecast.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>da considerare?</t>
   </si>
@@ -128,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,8 +142,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,8 +171,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -165,15 +185,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Accent5" xfId="1" builtinId="45"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -506,19 +554,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:X4"/>
+  <dimension ref="A3:AG4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:33" ht="15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,8 +640,35 @@
       <c r="X3" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Y3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
         <v>25</v>
       </c>

--- a/Solution/FilesEditor.Tests/TestFiles/InputFiles/Forecast.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/InputFiles/Forecast.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="33">
   <si>
     <t>da considerare?</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>TOB1</t>
+  </si>
+  <si>
+    <t>TOB2</t>
+  </si>
+  <si>
+    <t>TOB3</t>
+  </si>
+  <si>
+    <t>TOB4</t>
   </si>
 </sst>
 </file>
@@ -554,17 +566,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AG4"/>
+  <dimension ref="A3:AG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:33" ht="15">
@@ -679,7 +698,7 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -737,6 +756,1218 @@
       </c>
       <c r="X4">
         <v>97</v>
+      </c>
+      <c r="Y4">
+        <v>101</v>
+      </c>
+      <c r="Z4">
+        <f>Y4+1</f>
+        <v>102</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ref="AA4:AG4" si="0">Z4+1</f>
+        <v>103</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>100000</v>
+      </c>
+      <c r="G5">
+        <v>100000</v>
+      </c>
+      <c r="H5">
+        <v>100000</v>
+      </c>
+      <c r="I5">
+        <v>100000</v>
+      </c>
+      <c r="J5">
+        <v>100000</v>
+      </c>
+      <c r="K5">
+        <v>100000</v>
+      </c>
+      <c r="L5">
+        <v>100000</v>
+      </c>
+      <c r="M5">
+        <v>100000</v>
+      </c>
+      <c r="N5">
+        <v>100000</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5">
+        <v>50</v>
+      </c>
+      <c r="S5">
+        <v>40</v>
+      </c>
+      <c r="T5">
+        <v>90</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>7</v>
+      </c>
+      <c r="X5">
+        <v>97</v>
+      </c>
+      <c r="Y5">
+        <f>Y4+10</f>
+        <v>111</v>
+      </c>
+      <c r="Z5">
+        <f>Z4+10</f>
+        <v>112</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" ref="AA5:AG5" si="1">AA4+10</f>
+        <v>113</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>100000</v>
+      </c>
+      <c r="G6">
+        <v>100000</v>
+      </c>
+      <c r="H6">
+        <v>100000</v>
+      </c>
+      <c r="I6">
+        <v>100000</v>
+      </c>
+      <c r="J6">
+        <v>100000</v>
+      </c>
+      <c r="K6">
+        <v>100000</v>
+      </c>
+      <c r="L6">
+        <v>100000</v>
+      </c>
+      <c r="M6">
+        <v>100000</v>
+      </c>
+      <c r="N6">
+        <v>100000</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6">
+        <v>50</v>
+      </c>
+      <c r="S6">
+        <v>40</v>
+      </c>
+      <c r="T6">
+        <v>90</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>7</v>
+      </c>
+      <c r="X6">
+        <v>97</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" ref="Y6:Y8" si="2">Y5+10</f>
+        <v>121</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" ref="Z6:AG7" si="3">Z5+10</f>
+        <v>122</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <v>100000</v>
+      </c>
+      <c r="G7">
+        <v>100000</v>
+      </c>
+      <c r="H7">
+        <v>100000</v>
+      </c>
+      <c r="I7">
+        <v>100000</v>
+      </c>
+      <c r="J7">
+        <v>100000</v>
+      </c>
+      <c r="K7">
+        <v>100000</v>
+      </c>
+      <c r="L7">
+        <v>100000</v>
+      </c>
+      <c r="M7">
+        <v>100000</v>
+      </c>
+      <c r="N7">
+        <v>100000</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7">
+        <v>50</v>
+      </c>
+      <c r="S7">
+        <v>40</v>
+      </c>
+      <c r="T7">
+        <v>90</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>7</v>
+      </c>
+      <c r="X7">
+        <v>97</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="3"/>
+        <v>137</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>100000</v>
+      </c>
+      <c r="G8">
+        <v>100000</v>
+      </c>
+      <c r="H8">
+        <v>100000</v>
+      </c>
+      <c r="I8">
+        <v>100000</v>
+      </c>
+      <c r="J8">
+        <v>100000</v>
+      </c>
+      <c r="K8">
+        <v>100000</v>
+      </c>
+      <c r="L8">
+        <v>100000</v>
+      </c>
+      <c r="M8">
+        <v>100000</v>
+      </c>
+      <c r="N8">
+        <v>100000</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8">
+        <v>50</v>
+      </c>
+      <c r="S8">
+        <v>40</v>
+      </c>
+      <c r="T8">
+        <v>90</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>7</v>
+      </c>
+      <c r="X8">
+        <v>97</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="Z8">
+        <f>Y8+1</f>
+        <v>142</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" ref="AA8" si="4">Z8+1</f>
+        <v>143</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" ref="AB8" si="5">AA8+1</f>
+        <v>144</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" ref="AC8" si="6">AB8+1</f>
+        <v>145</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" ref="AD8" si="7">AC8+1</f>
+        <v>146</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" ref="AE8" si="8">AD8+1</f>
+        <v>147</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" ref="AF8" si="9">AE8+1</f>
+        <v>148</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" ref="AG8" si="10">AF8+1</f>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>100000</v>
+      </c>
+      <c r="G9">
+        <v>100000</v>
+      </c>
+      <c r="H9">
+        <v>100000</v>
+      </c>
+      <c r="I9">
+        <v>100000</v>
+      </c>
+      <c r="J9">
+        <v>100000</v>
+      </c>
+      <c r="K9">
+        <v>100000</v>
+      </c>
+      <c r="L9">
+        <v>100000</v>
+      </c>
+      <c r="M9">
+        <v>100000</v>
+      </c>
+      <c r="N9">
+        <v>100000</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9">
+        <v>50</v>
+      </c>
+      <c r="S9">
+        <v>40</v>
+      </c>
+      <c r="T9">
+        <v>90</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>7</v>
+      </c>
+      <c r="X9">
+        <v>97</v>
+      </c>
+      <c r="Y9">
+        <f>Y8+10</f>
+        <v>151</v>
+      </c>
+      <c r="Z9">
+        <f>Z8+10</f>
+        <v>152</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" ref="AA9:AG9" si="11">AA8+10</f>
+        <v>153</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="11"/>
+        <v>154</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="11"/>
+        <v>155</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="11"/>
+        <v>156</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="11"/>
+        <v>157</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="11"/>
+        <v>158</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="11"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>100000</v>
+      </c>
+      <c r="G10">
+        <v>100000</v>
+      </c>
+      <c r="H10">
+        <v>100000</v>
+      </c>
+      <c r="I10">
+        <v>100000</v>
+      </c>
+      <c r="J10">
+        <v>100000</v>
+      </c>
+      <c r="K10">
+        <v>100000</v>
+      </c>
+      <c r="L10">
+        <v>100000</v>
+      </c>
+      <c r="M10">
+        <v>100000</v>
+      </c>
+      <c r="N10">
+        <v>100000</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10">
+        <v>50</v>
+      </c>
+      <c r="S10">
+        <v>40</v>
+      </c>
+      <c r="T10">
+        <v>90</v>
+      </c>
+      <c r="U10">
+        <v>5</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>7</v>
+      </c>
+      <c r="X10">
+        <v>97</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" ref="Y10:AG12" si="12">Y9+10</f>
+        <v>161</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="12"/>
+        <v>162</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="12"/>
+        <v>163</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="12"/>
+        <v>164</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="12"/>
+        <v>165</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="12"/>
+        <v>166</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="12"/>
+        <v>167</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="12"/>
+        <v>168</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="12"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <v>100000</v>
+      </c>
+      <c r="G11">
+        <v>100000</v>
+      </c>
+      <c r="H11">
+        <v>100000</v>
+      </c>
+      <c r="I11">
+        <v>100000</v>
+      </c>
+      <c r="J11">
+        <v>100000</v>
+      </c>
+      <c r="K11">
+        <v>100000</v>
+      </c>
+      <c r="L11">
+        <v>100000</v>
+      </c>
+      <c r="M11">
+        <v>100000</v>
+      </c>
+      <c r="N11">
+        <v>100000</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11">
+        <v>50</v>
+      </c>
+      <c r="S11">
+        <v>40</v>
+      </c>
+      <c r="T11">
+        <v>90</v>
+      </c>
+      <c r="U11">
+        <v>5</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>7</v>
+      </c>
+      <c r="X11">
+        <v>97</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="12"/>
+        <v>171</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="12"/>
+        <v>172</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="12"/>
+        <v>173</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="12"/>
+        <v>174</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="12"/>
+        <v>175</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="12"/>
+        <v>176</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="12"/>
+        <v>177</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="12"/>
+        <v>178</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="12"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>100000</v>
+      </c>
+      <c r="G12">
+        <v>100000</v>
+      </c>
+      <c r="H12">
+        <v>100000</v>
+      </c>
+      <c r="I12">
+        <v>100000</v>
+      </c>
+      <c r="J12">
+        <v>100000</v>
+      </c>
+      <c r="K12">
+        <v>100000</v>
+      </c>
+      <c r="L12">
+        <v>100000</v>
+      </c>
+      <c r="M12">
+        <v>100000</v>
+      </c>
+      <c r="N12">
+        <v>100000</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12">
+        <v>50</v>
+      </c>
+      <c r="S12">
+        <v>40</v>
+      </c>
+      <c r="T12">
+        <v>90</v>
+      </c>
+      <c r="U12">
+        <v>5</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>7</v>
+      </c>
+      <c r="X12">
+        <v>97</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="12"/>
+        <v>181</v>
+      </c>
+      <c r="Z12">
+        <f>Y12+1</f>
+        <v>182</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" ref="AA12" si="13">Z12+1</f>
+        <v>183</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" ref="AB12" si="14">AA12+1</f>
+        <v>184</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" ref="AC12" si="15">AB12+1</f>
+        <v>185</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" ref="AD12" si="16">AC12+1</f>
+        <v>186</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" ref="AE12" si="17">AD12+1</f>
+        <v>187</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" ref="AF12" si="18">AE12+1</f>
+        <v>188</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" ref="AG12" si="19">AF12+1</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <v>100000</v>
+      </c>
+      <c r="G13">
+        <v>100000</v>
+      </c>
+      <c r="H13">
+        <v>100000</v>
+      </c>
+      <c r="I13">
+        <v>100000</v>
+      </c>
+      <c r="J13">
+        <v>100000</v>
+      </c>
+      <c r="K13">
+        <v>100000</v>
+      </c>
+      <c r="L13">
+        <v>100000</v>
+      </c>
+      <c r="M13">
+        <v>100000</v>
+      </c>
+      <c r="N13">
+        <v>100000</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13">
+        <v>50</v>
+      </c>
+      <c r="S13">
+        <v>40</v>
+      </c>
+      <c r="T13">
+        <v>90</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>7</v>
+      </c>
+      <c r="X13">
+        <v>97</v>
+      </c>
+      <c r="Y13">
+        <f>Y12+10</f>
+        <v>191</v>
+      </c>
+      <c r="Z13">
+        <f>Z12+10</f>
+        <v>192</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" ref="AA13:AG13" si="20">AA12+10</f>
+        <v>193</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="20"/>
+        <v>194</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="20"/>
+        <v>195</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="20"/>
+        <v>196</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="20"/>
+        <v>197</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="20"/>
+        <v>198</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="20"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14">
+        <v>100000</v>
+      </c>
+      <c r="G14">
+        <v>100000</v>
+      </c>
+      <c r="H14">
+        <v>100000</v>
+      </c>
+      <c r="I14">
+        <v>100000</v>
+      </c>
+      <c r="J14">
+        <v>100000</v>
+      </c>
+      <c r="K14">
+        <v>100000</v>
+      </c>
+      <c r="L14">
+        <v>100000</v>
+      </c>
+      <c r="M14">
+        <v>100000</v>
+      </c>
+      <c r="N14">
+        <v>100000</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14">
+        <v>50</v>
+      </c>
+      <c r="S14">
+        <v>40</v>
+      </c>
+      <c r="T14">
+        <v>90</v>
+      </c>
+      <c r="U14">
+        <v>5</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>7</v>
+      </c>
+      <c r="X14">
+        <v>97</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" ref="Y14:AG15" si="21">Y13+10</f>
+        <v>201</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="21"/>
+        <v>202</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="21"/>
+        <v>203</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="21"/>
+        <v>204</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="21"/>
+        <v>205</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="21"/>
+        <v>206</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="21"/>
+        <v>207</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="21"/>
+        <v>208</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="21"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15">
+        <v>100000</v>
+      </c>
+      <c r="G15">
+        <v>100000</v>
+      </c>
+      <c r="H15">
+        <v>100000</v>
+      </c>
+      <c r="I15">
+        <v>100000</v>
+      </c>
+      <c r="J15">
+        <v>100000</v>
+      </c>
+      <c r="K15">
+        <v>100000</v>
+      </c>
+      <c r="L15">
+        <v>100000</v>
+      </c>
+      <c r="M15">
+        <v>100000</v>
+      </c>
+      <c r="N15">
+        <v>100000</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15">
+        <v>50</v>
+      </c>
+      <c r="S15">
+        <v>40</v>
+      </c>
+      <c r="T15">
+        <v>90</v>
+      </c>
+      <c r="U15">
+        <v>5</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <v>7</v>
+      </c>
+      <c r="X15">
+        <v>97</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="21"/>
+        <v>211</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="21"/>
+        <v>212</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="21"/>
+        <v>213</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="21"/>
+        <v>214</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="21"/>
+        <v>215</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="21"/>
+        <v>216</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="21"/>
+        <v>217</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="21"/>
+        <v>218</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="21"/>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/Solution/FilesEditor.Tests/TestFiles/InputFiles/Forecast.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/InputFiles/Forecast.xlsx
@@ -568,7 +568,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4:Y15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -761,35 +763,27 @@
         <v>101</v>
       </c>
       <c r="Z4">
-        <f>Y4+1</f>
         <v>102</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="AA4:AG4" si="0">Z4+1</f>
         <v>103</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="0"/>
         <v>106</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="0"/>
         <v>109</v>
       </c>
     </row>
@@ -864,39 +858,30 @@
         <v>97</v>
       </c>
       <c r="Y5">
-        <f>Y4+10</f>
         <v>111</v>
       </c>
       <c r="Z5">
-        <f>Z4+10</f>
         <v>112</v>
       </c>
       <c r="AA5">
-        <f t="shared" ref="AA5:AG5" si="1">AA4+10</f>
         <v>113</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="1"/>
         <v>119</v>
       </c>
     </row>
@@ -971,39 +956,30 @@
         <v>97</v>
       </c>
       <c r="Y6">
-        <f t="shared" ref="Y6:Y8" si="2">Y5+10</f>
         <v>121</v>
       </c>
       <c r="Z6">
-        <f t="shared" ref="Z6:AG7" si="3">Z5+10</f>
         <v>122</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="3"/>
         <v>127</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="3"/>
         <v>129</v>
       </c>
     </row>
@@ -1078,39 +1054,30 @@
         <v>97</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="2"/>
         <v>131</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="3"/>
         <v>132</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="3"/>
         <v>133</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="3"/>
         <v>134</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="3"/>
         <v>135</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="3"/>
         <v>136</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="3"/>
         <v>137</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="3"/>
         <v>138</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="3"/>
         <v>139</v>
       </c>
     </row>
@@ -1185,39 +1152,30 @@
         <v>97</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="Z8">
-        <f>Y8+1</f>
         <v>142</v>
       </c>
       <c r="AA8">
-        <f t="shared" ref="AA8" si="4">Z8+1</f>
         <v>143</v>
       </c>
       <c r="AB8">
-        <f t="shared" ref="AB8" si="5">AA8+1</f>
         <v>144</v>
       </c>
       <c r="AC8">
-        <f t="shared" ref="AC8" si="6">AB8+1</f>
         <v>145</v>
       </c>
       <c r="AD8">
-        <f t="shared" ref="AD8" si="7">AC8+1</f>
         <v>146</v>
       </c>
       <c r="AE8">
-        <f t="shared" ref="AE8" si="8">AD8+1</f>
         <v>147</v>
       </c>
       <c r="AF8">
-        <f t="shared" ref="AF8" si="9">AE8+1</f>
         <v>148</v>
       </c>
       <c r="AG8">
-        <f t="shared" ref="AG8" si="10">AF8+1</f>
         <v>149</v>
       </c>
     </row>
@@ -1292,39 +1250,30 @@
         <v>97</v>
       </c>
       <c r="Y9">
-        <f>Y8+10</f>
         <v>151</v>
       </c>
       <c r="Z9">
-        <f>Z8+10</f>
         <v>152</v>
       </c>
       <c r="AA9">
-        <f t="shared" ref="AA9:AG9" si="11">AA8+10</f>
         <v>153</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="11"/>
         <v>154</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="11"/>
         <v>155</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="11"/>
         <v>156</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="11"/>
         <v>157</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="11"/>
         <v>158</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="11"/>
         <v>159</v>
       </c>
     </row>
@@ -1399,39 +1348,30 @@
         <v>97</v>
       </c>
       <c r="Y10">
-        <f t="shared" ref="Y10:AG12" si="12">Y9+10</f>
         <v>161</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="12"/>
         <v>162</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="12"/>
         <v>163</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="12"/>
         <v>164</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="12"/>
         <v>165</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="12"/>
         <v>166</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="12"/>
         <v>167</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="12"/>
         <v>168</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="12"/>
         <v>169</v>
       </c>
     </row>
@@ -1506,39 +1446,30 @@
         <v>97</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="12"/>
         <v>171</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="12"/>
         <v>172</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="12"/>
         <v>173</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="12"/>
         <v>174</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="12"/>
         <v>175</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="12"/>
         <v>176</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="12"/>
         <v>177</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="12"/>
         <v>178</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="12"/>
         <v>179</v>
       </c>
     </row>
@@ -1613,39 +1544,30 @@
         <v>97</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="12"/>
         <v>181</v>
       </c>
       <c r="Z12">
-        <f>Y12+1</f>
         <v>182</v>
       </c>
       <c r="AA12">
-        <f t="shared" ref="AA12" si="13">Z12+1</f>
         <v>183</v>
       </c>
       <c r="AB12">
-        <f t="shared" ref="AB12" si="14">AA12+1</f>
         <v>184</v>
       </c>
       <c r="AC12">
-        <f t="shared" ref="AC12" si="15">AB12+1</f>
         <v>185</v>
       </c>
       <c r="AD12">
-        <f t="shared" ref="AD12" si="16">AC12+1</f>
         <v>186</v>
       </c>
       <c r="AE12">
-        <f t="shared" ref="AE12" si="17">AD12+1</f>
         <v>187</v>
       </c>
       <c r="AF12">
-        <f t="shared" ref="AF12" si="18">AE12+1</f>
         <v>188</v>
       </c>
       <c r="AG12">
-        <f t="shared" ref="AG12" si="19">AF12+1</f>
         <v>189</v>
       </c>
     </row>
@@ -1720,39 +1642,30 @@
         <v>97</v>
       </c>
       <c r="Y13">
-        <f>Y12+10</f>
         <v>191</v>
       </c>
       <c r="Z13">
-        <f>Z12+10</f>
         <v>192</v>
       </c>
       <c r="AA13">
-        <f t="shared" ref="AA13:AG13" si="20">AA12+10</f>
         <v>193</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="20"/>
         <v>194</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="20"/>
         <v>195</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="20"/>
         <v>196</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="20"/>
         <v>197</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="20"/>
         <v>198</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="20"/>
         <v>199</v>
       </c>
     </row>
@@ -1827,39 +1740,30 @@
         <v>97</v>
       </c>
       <c r="Y14">
-        <f t="shared" ref="Y14:AG15" si="21">Y13+10</f>
         <v>201</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="21"/>
         <v>202</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="21"/>
         <v>203</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="21"/>
         <v>204</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="21"/>
         <v>205</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="21"/>
         <v>206</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="21"/>
         <v>207</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="21"/>
         <v>208</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="21"/>
         <v>209</v>
       </c>
     </row>
@@ -1934,39 +1838,30 @@
         <v>97</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="21"/>
         <v>211</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="21"/>
         <v>212</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="21"/>
         <v>213</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="21"/>
         <v>214</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="21"/>
         <v>215</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="21"/>
         <v>216</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="21"/>
         <v>217</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="21"/>
         <v>218</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="21"/>
         <v>219</v>
       </c>
     </row>

--- a/Solution/FilesEditor.Tests/TestFiles/InputFiles/Forecast.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/InputFiles/Forecast.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\FilesEditor.Tests\TestFiles\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EFEC59-24D4-4848-95B6-D7C30D71130C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
   <si>
     <t>da considerare?</t>
   </si>
@@ -134,13 +124,37 @@
   </si>
   <si>
     <t>TOB4</t>
+  </si>
+  <si>
+    <t>abcd*</t>
+  </si>
+  <si>
+    <t>ef*gh</t>
+  </si>
+  <si>
+    <t>*ilmn</t>
+  </si>
+  <si>
+    <t>Pippo</t>
+  </si>
+  <si>
+    <t>aaaa*</t>
+  </si>
+  <si>
+    <t>bb*bb</t>
+  </si>
+  <si>
+    <t>*cccc</t>
+  </si>
+  <si>
+    <t>Pluto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,8 +243,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -565,30 +579,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AG15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4:Y15"/>
+      <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:33" ht="15">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -759,11 +773,11 @@
       <c r="X4">
         <v>97</v>
       </c>
-      <c r="Y4">
-        <v>101</v>
-      </c>
-      <c r="Z4">
-        <v>102</v>
+      <c r="Y4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>33</v>
       </c>
       <c r="AA4">
         <v>103</v>
@@ -787,7 +801,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -857,11 +871,11 @@
       <c r="X5">
         <v>97</v>
       </c>
-      <c r="Y5">
-        <v>111</v>
-      </c>
-      <c r="Z5">
-        <v>112</v>
+      <c r="Y5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>34</v>
       </c>
       <c r="AA5">
         <v>113</v>
@@ -885,7 +899,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -955,11 +969,11 @@
       <c r="X6">
         <v>97</v>
       </c>
-      <c r="Y6">
-        <v>121</v>
-      </c>
-      <c r="Z6">
-        <v>122</v>
+      <c r="Y6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>35</v>
       </c>
       <c r="AA6">
         <v>123</v>
@@ -983,7 +997,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1053,11 +1067,11 @@
       <c r="X7">
         <v>97</v>
       </c>
-      <c r="Y7">
-        <v>131</v>
-      </c>
-      <c r="Z7">
-        <v>132</v>
+      <c r="Y7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>36</v>
       </c>
       <c r="AA7">
         <v>133</v>
@@ -1081,7 +1095,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1151,11 +1165,11 @@
       <c r="X8">
         <v>97</v>
       </c>
-      <c r="Y8">
-        <v>141</v>
-      </c>
-      <c r="Z8">
-        <v>142</v>
+      <c r="Y8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>37</v>
       </c>
       <c r="AA8">
         <v>143</v>
@@ -1179,7 +1193,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1249,11 +1263,11 @@
       <c r="X9">
         <v>97</v>
       </c>
-      <c r="Y9">
-        <v>151</v>
-      </c>
-      <c r="Z9">
-        <v>152</v>
+      <c r="Y9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>38</v>
       </c>
       <c r="AA9">
         <v>153</v>
@@ -1277,7 +1291,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1347,11 +1361,11 @@
       <c r="X10">
         <v>97</v>
       </c>
-      <c r="Y10">
-        <v>161</v>
-      </c>
-      <c r="Z10">
-        <v>162</v>
+      <c r="Y10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>39</v>
       </c>
       <c r="AA10">
         <v>163</v>
@@ -1375,7 +1389,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1445,11 +1459,11 @@
       <c r="X11">
         <v>97</v>
       </c>
-      <c r="Y11">
-        <v>171</v>
-      </c>
-      <c r="Z11">
-        <v>172</v>
+      <c r="Y11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>40</v>
       </c>
       <c r="AA11">
         <v>173</v>
@@ -1473,7 +1487,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1571,7 +1585,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1669,7 +1683,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1767,7 +1781,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>

--- a/Solution/FilesEditor.Tests/TestFiles/InputFiles/Forecast.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/InputFiles/Forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\FilesEditor.Tests\TestFiles\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EFEC59-24D4-4848-95B6-D7C30D71130C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12BFA90-0F0C-451E-AA45-73C8C4D7A174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>*ilmn</t>
   </si>
   <si>
-    <t>Pippo</t>
-  </si>
-  <si>
     <t>aaaa*</t>
   </si>
   <si>
@@ -147,7 +144,10 @@
     <t>*cccc</t>
   </si>
   <si>
-    <t>Pluto</t>
+    <t>Caso D</t>
+  </si>
+  <si>
+    <t>Caso 1</t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,7 @@
   <dimension ref="A3:AG15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+      <selection activeCell="Y4" sqref="Y4:Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,7 +774,7 @@
         <v>97</v>
       </c>
       <c r="Y4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s">
         <v>33</v>
@@ -872,7 +872,7 @@
         <v>97</v>
       </c>
       <c r="Y5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z5" t="s">
         <v>34</v>
@@ -970,10 +970,10 @@
         <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AA6">
         <v>123</v>
@@ -1068,10 +1068,10 @@
         <v>97</v>
       </c>
       <c r="Y7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Z7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AA7">
         <v>133</v>
@@ -1264,10 +1264,10 @@
         <v>97</v>
       </c>
       <c r="Y9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA9">
         <v>153</v>
@@ -1365,7 +1365,7 @@
         <v>39</v>
       </c>
       <c r="Z10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AA10">
         <v>163</v>
@@ -1460,10 +1460,10 @@
         <v>97</v>
       </c>
       <c r="Y11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Z11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA11">
         <v>173</v>
@@ -1880,6 +1880,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Z5:Z11">
+    <sortCondition descending="1" ref="Z4:Z11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Solution/FilesEditor.Tests/TestFiles/InputFiles/Forecast.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/InputFiles/Forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\FilesEditor.Tests\TestFiles\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12BFA90-0F0C-451E-AA45-73C8C4D7A174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C609BAA0-36C8-467E-8C88-981EC1C05894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -583,7 +583,7 @@
   <dimension ref="A3:AG15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4:Z11"/>
+      <selection activeCell="AA4" sqref="AA4:AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +780,7 @@
         <v>33</v>
       </c>
       <c r="AA4">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="AB4">
         <v>104</v>
@@ -878,7 +878,7 @@
         <v>34</v>
       </c>
       <c r="AA5">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="AB5">
         <v>114</v>
@@ -976,7 +976,7 @@
         <v>39</v>
       </c>
       <c r="AA6">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="AB6">
         <v>124</v>
@@ -1074,7 +1074,7 @@
         <v>40</v>
       </c>
       <c r="AA7">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="AB7">
         <v>134</v>
@@ -1172,7 +1172,7 @@
         <v>37</v>
       </c>
       <c r="AA8">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="AB8">
         <v>144</v>
@@ -1270,7 +1270,7 @@
         <v>36</v>
       </c>
       <c r="AA9">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="AB9">
         <v>154</v>
@@ -1368,7 +1368,7 @@
         <v>35</v>
       </c>
       <c r="AA10">
-        <v>163</v>
+        <v>7</v>
       </c>
       <c r="AB10">
         <v>164</v>
@@ -1466,7 +1466,7 @@
         <v>38</v>
       </c>
       <c r="AA11">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="AB11">
         <v>174</v>
@@ -1564,7 +1564,7 @@
         <v>182</v>
       </c>
       <c r="AA12">
-        <v>183</v>
+        <v>9</v>
       </c>
       <c r="AB12">
         <v>184</v>
@@ -1662,7 +1662,7 @@
         <v>192</v>
       </c>
       <c r="AA13">
-        <v>193</v>
+        <v>10</v>
       </c>
       <c r="AB13">
         <v>194</v>
@@ -1760,7 +1760,7 @@
         <v>202</v>
       </c>
       <c r="AA14">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="AB14">
         <v>204</v>
@@ -1858,7 +1858,7 @@
         <v>212</v>
       </c>
       <c r="AA15">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="AB15">
         <v>214</v>
